--- a/biology/Écologie/Allométrie/Allométrie.xlsx
+++ b/biology/Écologie/Allométrie/Allométrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie du développement des organismes, l’allométrie est le fait que des organes, tissus ou processus croissent à des vitesses différentes[1]. On présuppose que ces phénomènes de croissance sont régis par des lois mathématiques que l'on peut découvrir[2],[3].
-Le terme allométrie (« allo » vient du grec allos = « autres », donc dans ce cas « autre que métrique », c’est-à-dire non linéaire) a été repris en 1936 par Julian Huxley et Georges Teissier en tant que désignation conventionnelle, en biologie, des phénomènes de croissance différentielle d'organes, dans la mesure où ils tombent sous une loi de forme mathématique spécifiée[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie du développement des organismes, l’allométrie est le fait que des organes, tissus ou processus croissent à des vitesses différentes. On présuppose que ces phénomènes de croissance sont régis par des lois mathématiques que l'on peut découvrir,.
+Le terme allométrie (« allo » vient du grec allos = « autres », donc dans ce cas « autre que métrique », c’est-à-dire non linéaire) a été repris en 1936 par Julian Huxley et Georges Teissier en tant que désignation conventionnelle, en biologie, des phénomènes de croissance différentielle d'organes, dans la mesure où ils tombent sous une loi de forme mathématique spécifiée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’allométrie est l’étude des échelles de relations entre une partie du corps et le corps dans son ensemble. Elle décrit comment les caractéristiques d’un individu changent avec sa taille.
 Plus récemment, la signification de l’allométrie s’est élargie pour faire référence aux relations biologiques en général : traits morphologiques (taille du cerveau / taille du corps), traits physiologiques (taux métabolique / taille du corps), traits écologiques (taille des ailes / performance de vol). Les relations allométriques peuvent être décrites pour presque toutes les mesures biologiques qui coévoluent.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Historique[5]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La définition conventionnelle d’allométrie donnée par Huxley et Teissier en 1936 fait suite à d’autres lois établies précédemment, comme celles d'Eugène Dubois et Louis Lapicque qui avaient montré dès les années 1890 que le rapport entre taille du cerveau et taille du corps chez les mammifères obéit à une loi de puissance. Par la suite, dans les années 1910-1920, Albert Pézard et Christian Champy ont établi sur des bases expérimentales le phénomène de croissance relative au niveau du développement individuel, dans le cas des caractères sexuels secondaires.
 Albert Pézard, physiologiste, a contribué à la naissance de ce concept grâce à sa thèse, depuis les années 1900, sur la croissance relative plus rapide des caractères sexuels secondaires dans des groupes comme les crustacés, les insectes, les cervidés. Il montre que le rythme de croissance de certains caractères sexuels secondaires est en discordance avec le rythme général de croissance du corps (expérience sur des coqs : longueur de leur ergot, crête et taille générale). Il introduit donc le terme de « croissance hétérogonique », terme qui sera utilisé jusqu’en 1935 avec l’apparition du terme « allométrie ».
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Formulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus souvent les relations d'allométrie s'expriment sous forme de fonction puissance comme suit : 
         y
@@ -633,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +669,9 @@
           <t>Types d'allométrie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On distingue :
 l’allométrie positive, hyperallométrie, ou majorante, qui est une croissance relative plus rapide d’une partie d’un organisme par rapport à la croissance globale de cet organisme ;
@@ -669,7 +689,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,7 +707,9 @@
           <t>Méthodes d'études</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allométrie est une donnée qui n'a de sens qu'à travers une étude statistique. En effet, de grands effectifs sont nécessaires pour pouvoir établir l'existence d'une loi allométrique, on ne peut pas l'utiliser pour la comparaison d'individus isolés. 
 L'étude de relations allométriques prend beaucoup d’importance dans la recherche en écologie car elle fournit une relation mathématique, permettant les dérivations d'une variable à une autre. L’établissement de relations allométriques est essentiel pour générer des informations utiles pour la gestion des ressources et de comprendre l'évolution des conditions environnementales et la pollution.
@@ -701,7 +723,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Allom%C3%A9trie</t>
+          <t>Allométrie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,9 +741,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a une relation entre la taille d'un organisme et la taille de son cerveau. Le diamètre crânien suit donc une loi allométrique.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Il y a une relation entre la taille d'un organisme et la taille de son cerveau. Le diamètre crânien suit donc une loi allométrique.
 Une allométrie négative entre le crâne et le corps humain est remarquable si l'on étudie l'ontogenèse de l'Homme (diminution de la corrélation taille du crâne / taille du corps, entre l'état nouveau-né et adulte).
 Chez les chiens on observe une forte allométrie de croissance dans le développement des os crâniens (au niveau maxillaire par exemple), alors que chez les chats, on observera plutôt une croissance isométrique de tous les os crâniens.
 Il y a aussi une relation entre la masse d'un organisme et sa réserve de graisse notée G : G = 0,033 * (masse)^1,5.
@@ -732,14 +756,83 @@
           M
             0.25
     {\displaystyle \tau =kM^{0.25}}
-[6].
-Allométrie et croissance relative[7]
--	Espèce A et B : Chez l’espèce A, plus les individus ont un grand corps et plus les ailles sont proportionnellement grandes par rapport au corps. On observe le même phénomène au sein de l'espèce B ; bien que pour une même longueur du corps, les individus de l'espèce A ont toujours des ailes plus grandes que les individus de l'espèce B.
+.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Allométrie et croissance relative[7]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-	Espèce A et B : Chez l’espèce A, plus les individus ont un grand corps et plus les ailles sont proportionnellement grandes par rapport au corps. On observe le même phénomène au sein de l'espèce B ; bien que pour une même longueur du corps, les individus de l'espèce A ont toujours des ailes plus grandes que les individus de l'espèce B.
 -	Espèce C : isométrie (coefficient de proportionnalité = 1) donc les ailes gardent la même proportion par rapport au corps, peu importe la taille des individus.
 -	Espèce D : allométrie positive (coefficient de proportionnalité &gt; 1) donc plus les individus ont un grand corps, plus les ailes sont proportionnellement grandes par rapport au corps.
 -	Espèce E : allométrie négative (coefficient de proportionnalité &lt; 1) donc plus les individus ont un grand corps, plus les ailes sont proportionnellement petites par rapport au corps.
-Morphométrie et allométrie chez les poissons[8]
-La relation la plus utilisée, applicable à la majorité des poissons, correspond à une relation allométrique entre la masse et la longueur du corps des individus analysés. Cette relation suit une loi de puissance et se caractérise par l'équation :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Morphométrie et allométrie chez les poissons[8]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La relation la plus utilisée, applicable à la majorité des poissons, correspond à une relation allométrique entre la masse et la longueur du corps des individus analysés. Cette relation suit une loi de puissance et se caractérise par l'équation :
 "Masse" = a (longueur du corps)b
 a représente le coefficient de la forme du corps (0,1 pour les poissons de petites tailles avec un corps rond et 0,01 pour les poissons de forme plus linéaire) ;
 b correspond à un coefficient de balancement des dimensions de l'équation, ses valeurs sont aux alentours de 3.
@@ -756,9 +849,43 @@
 Pour décrire le plus fidèlement possible les relations morphométriques chez les poissons, les relations allométriques permettent d’obtenir un modèle plus précis.
 Les caractéristiques morphologiques des poissons telles que le poids, la forme de la mâchoire et de la queue et la longueur de l’intestin, varie en fonction de la taille du corps. Ces variations dépendent de l’alimentation spécifique des différents groupes de poissons étudiés. En effet, un poisson carnivore a besoin d’avoir une mâchoire plus large pour se nourrir qu’un herbivore.
 Les variations des différents caractères étudiés (poids, longueur de l’intestin et forme de la queue) en fonction de la longueur du corps dépendent du type d’habitat. Au contraire, la forme de la mâchoire n’est pas modifiée selon le type d’habitat.
-Lorsqu’on étudie la forme de la queue en fonction de la longueur du corps, on remarque qu’il existe une relation polynomiale entre ces deux traits de caractère. Cependant, il existe une exception à la règle : chez l’espèce Cepola macrophthalma, cette relation est négative. Cette observation est due au fait que chez cette espèce, il existe un fort dimorphisme sexuel concernant la taille de la queue et sa forme. Ce modèle polynomial a été identifié pour 46 des 61 espèces étudiées.
-Relations allométriques taille/poids chez des espèces benthiques[9]
-R.A. McKinney, S.M. Glatt et S.R. Williams s’intéressent au rapport entre la taille d'invertébrés marins et le poids de leur tissu. Un tel lien mis en évidence, peut nous indiquer comment la dégradation de leurs habitats affectent leur habilité à y vivre, et donc à trouver suffisamment de nutriments.
+Lorsqu’on étudie la forme de la queue en fonction de la longueur du corps, on remarque qu’il existe une relation polynomiale entre ces deux traits de caractère. Cependant, il existe une exception à la règle : chez l’espèce Cepola macrophthalma, cette relation est négative. Cette observation est due au fait que chez cette espèce, il existe un fort dimorphisme sexuel concernant la taille de la queue et sa forme. Ce modèle polynomial a été identifié pour 46 des 61 espèces étudiées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Relations allométriques taille/poids chez des espèces benthiques[9]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R.A. McKinney, S.M. Glatt et S.R. Williams s’intéressent au rapport entre la taille d'invertébrés marins et le poids de leur tissu. Un tel lien mis en évidence, peut nous indiquer comment la dégradation de leurs habitats affectent leur habilité à y vivre, et donc à trouver suffisamment de nutriments.
 Pour ce faire, ils travaillent sur 10 espèces de macroarthropodes benthique (crabes, crevettes…), provenant de différents sites.
 Ils mesurent la taille de tous les échantillons, pèsent les tissus et déterminent le contenu de nutriments présent dans les tissus.
 Ils examinent la relation entre la taille des coquilles et le poids des tissus, utilisant une régression linéaire et non linéaire. On pose:
@@ -768,8 +895,43 @@
 Ils observent une corrélation positive entre la taille des coquilles et le poids total de l'animal.
 Cependant, ils nous indiquent que plusieurs facteurs peuvent influencer le poids et la longueur de la coquille, pouvant être une source d'erreur dans leurs modèles: La disponibilité alimentaire peut influencer la croissance tissulaire, le stockage et l'utilisation peut changer le ratio de masse corporelle, les différences en disponibilité alimentaire des sites, les changements de morphologie des coquilles à la suite de variations phénotypiques peuvent aussi influencer le poids des tissus.
 L'énergie ou des données nutritives, peuvent alors être combinés pour fournir une évaluation de nourriture disponible.
-Relations allométriques chez les plantes: relations taille/métabolisme et taille/densité[10],[11]
-Les premières approches théoriques tendant à expliquer la relation entre la taille des plantes et la densité de leur population se basaient sur des modèles purement géométriques. Ces approximations se sont révélées incorrectes, ce qui s'explique par le fait que ces modèles ne prennent pas en compte les mécanismes biologiques liés à cette problématique, comme le prélèvement des ressources, la compétition... En 1998, un premier modèle biologique a été proposé par une équipe de chercheurs de l'institut de Santa Fé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Relations allométriques chez les plantes: relations taille/métabolisme et taille/densité[10],[11]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières approches théoriques tendant à expliquer la relation entre la taille des plantes et la densité de leur population se basaient sur des modèles purement géométriques. Ces approximations se sont révélées incorrectes, ce qui s'explique par le fait que ces modèles ne prennent pas en compte les mécanismes biologiques liés à cette problématique, comme le prélèvement des ressources, la compétition... En 1998, un premier modèle biologique a été proposé par une équipe de chercheurs de l'institut de Santa Fé.
 Étant donné que la quantité de sève transportée par le xylème nous donne une idée de la quantité d'eau et de nutriments utilisées par la plante, l'hypothèse faite est que le transport de sève par le xylème nous donne une bonne estimation du métabolisme de la plante. 
 La relation allométrique alors établie est telle que:
 Qo α M3/4
@@ -787,14 +949,119 @@
 La résistance diminue en fonction de la proportion de branches plus en plus grosses qui sont retirées à l'arbre ;
 Le diamètre des vaisseaux au sein du tronc peut atteindre un maximum, et donc limiter la hauteur maximum de l'arbre, qu'il estime à 100 m. C'est assez réaliste car le plus grand arbre mesure environ 115 m.
 De ce modèle, on peut tirer des conclusions importantes telle que, face à la compétition pour la lumière, la hauteur de la canopée sera maximisée en minimisant le rétrécissent des tubes vasculaires terminaux. De plus, les ressources sont distribuées en moyenne à la même vitesse dans tous les tubes conducteurs de toutes les plantes, indépendamment de la taille des tissus. Il en découle, pour une même quantité et disponibilité des ressources dans un environnement donné, une même quantité d'utilisation des ressources quel que soit le type de végétation.
-Évolution du modèle de West, Brown et Enquist[12],[13],[14]
-Le modèle établi par G. B. West, J. H. Brown et B. J. Enquist a subi de nombreuses remises en cause: en 2004, J. Kozlowski et M. Konarzewski publient un article dans Functional Ecology qui critique les approximations mathématiques et la pertinence biologiques du modèle. En 2005, les trois auteurs répondent à la publication de J. Kozlowski et M. Konarzewski par l’intermédiaire de la même revue. Selon eux, il n'y a pas de jeu de données qui contredise sérieusement leur modèle. Par contre, ils admettent qu'il reste une approximation générale et pensent qu'il pourrait servir de point de départ pour des modèles plus élaborés. En 2006, une publication de R. S. Etienne et de M. E. F. Apol reprend le modèle WBE et tente de l'affiner afin qu'il réponde plus fidèlement à la réalité  biologique des systèmes circulatoires.
-Relations allométriques entre la taille du génome et la taille de l'organisme chez deux taxons eucaryotes
-Chez les eucaryotes, la grande diversité de taille des génomes a intrigué les scientifiques qui cherchent les expliquer cette variabilité. Le fait est que la taille du génome ne peut être corrélée ni avec la complexité de l'organisme ni avec le nombre de gènes codant contenus dans le génome. Des récentes études faites sur des copépodes et des turbellariés suggèrent qu'il y aurait une forte relation allométrique entre la taille du génome et la taille de l'organisme pour ces deux taxons[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Évolution du modèle de West, Brown et Enquist[12],[13],[14]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le modèle établi par G. B. West, J. H. Brown et B. J. Enquist a subi de nombreuses remises en cause: en 2004, J. Kozlowski et M. Konarzewski publient un article dans Functional Ecology qui critique les approximations mathématiques et la pertinence biologiques du modèle. En 2005, les trois auteurs répondent à la publication de J. Kozlowski et M. Konarzewski par l’intermédiaire de la même revue. Selon eux, il n'y a pas de jeu de données qui contredise sérieusement leur modèle. Par contre, ils admettent qu'il reste une approximation générale et pensent qu'il pourrait servir de point de départ pour des modèles plus élaborés. En 2006, une publication de R. S. Etienne et de M. E. F. Apol reprend le modèle WBE et tente de l'affiner afin qu'il réponde plus fidèlement à la réalité  biologique des systèmes circulatoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Relations allométriques entre la taille du génome et la taille de l'organisme chez deux taxons eucaryotes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les eucaryotes, la grande diversité de taille des génomes a intrigué les scientifiques qui cherchent les expliquer cette variabilité. Le fait est que la taille du génome ne peut être corrélée ni avec la complexité de l'organisme ni avec le nombre de gènes codant contenus dans le génome. Des récentes études faites sur des copépodes et des turbellariés suggèrent qu'il y aurait une forte relation allométrique entre la taille du génome et la taille de l'organisme pour ces deux taxons.
 L'hypothèse se fonde sur des données empiriques qui montrent qu'il y a une corrélation positive entre la taille du génome et le volume de la cellule. Cette relation est sujette à plusieurs théories, la plus répandue étant qu'une cellule plus volumineuse tolère une plus grande quantité d'ADN non codant au sein de son génome. Sachant que le volume de la cellule est lié aux caractéristiques physiologiques des organismes, l'hypothèse faite est qu'une modification du volume de la cellule aura une influence sur la morphologie et la physiologie de l'organisme.
 Les données expérimentales obtenues sur respectivement 16 et 38 espèces de copépodes et de turbellariés ont montré qu'il y a une forte corrélation positive entre la taille du génome et la taille de l'organisme à l’intérieur de ces taxons, alors qu'une relation linéaire était attendue. Ces résultats suggèrent l'existence d'une forte relation allométrique entre la taille du génome et le volume de la cellule, ou bien un effet indirect de la taille du génome sur la régulation du cycle cellulaire.
-Taille des graines et germination[16]
-En 1999, Bond et al. ont développé un modèle décrivant la relation entre la taille des graines (masse ou diamètre) et leur profondeur maximale de germination, tel que :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Allométrie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Taille des graines et germination[16]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, Bond et al. ont développé un modèle décrivant la relation entre la taille des graines (masse ou diamètre) et leur profondeur maximale de germination, tel que :
 dmax α Cw0,33
 dmax: la profondeur maximale de germination, ou la longueur de la colonne de tissu que la graine est capable de produire afin d'atteindre la surface (sensibilité de la graine à être enfouie) ;
 w: la masse de la graine ;
